--- a/natmiOut/OldD4/LR-pairs_lrc2p/Cdh1-Igf1r.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Cdh1-Igf1r.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,12 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,12 +95,6 @@
   </si>
   <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.162200835793161</v>
+        <v>0.3969536666666666</v>
       </c>
       <c r="H2">
-        <v>0.162200835793161</v>
+        <v>1.190861</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.4375843187631858</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.4731252557598102</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>12.5148931640452</v>
+        <v>12.80982066666667</v>
       </c>
       <c r="N2">
-        <v>12.5148931640452</v>
+        <v>38.429462</v>
       </c>
       <c r="O2">
-        <v>0.3040245704902757</v>
+        <v>0.3014163559118313</v>
       </c>
       <c r="P2">
-        <v>0.3040245704902757</v>
+        <v>0.3301205700869484</v>
       </c>
       <c r="Q2">
-        <v>2.029926131070249</v>
+        <v>5.084905282975778</v>
       </c>
       <c r="R2">
-        <v>2.029926131070249</v>
+        <v>45.764147546782</v>
       </c>
       <c r="S2">
-        <v>0.3040245704902757</v>
+        <v>0.1318950707657607</v>
       </c>
       <c r="T2">
-        <v>0.3040245704902757</v>
+        <v>0.1561883791539618</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.162200835793161</v>
+        <v>0.3969536666666666</v>
       </c>
       <c r="H3">
-        <v>0.162200835793161</v>
+        <v>1.190861</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.4375843187631858</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.4731252557598102</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>11.0564783186421</v>
+        <v>11.70102866666667</v>
       </c>
       <c r="N3">
-        <v>11.0564783186421</v>
+        <v>35.103086</v>
       </c>
       <c r="O3">
-        <v>0.2685952670868577</v>
+        <v>0.2753263697363138</v>
       </c>
       <c r="P3">
-        <v>0.2685952670868577</v>
+        <v>0.3015460055655002</v>
       </c>
       <c r="Q3">
-        <v>1.793370024212712</v>
+        <v>4.644766233005111</v>
       </c>
       <c r="R3">
-        <v>1.793370024212712</v>
+        <v>41.80289609704599</v>
       </c>
       <c r="S3">
-        <v>0.2685952670868577</v>
+        <v>0.1204785019386059</v>
       </c>
       <c r="T3">
-        <v>0.2685952670868577</v>
+        <v>0.1426690310065264</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.162200835793161</v>
+        <v>0.3969536666666666</v>
       </c>
       <c r="H4">
-        <v>0.162200835793161</v>
+        <v>1.190861</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.4375843187631858</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.4731252557598102</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.26846164850978</v>
+        <v>2.507327333333333</v>
       </c>
       <c r="N4">
-        <v>2.26846164850978</v>
+        <v>7.521982</v>
       </c>
       <c r="O4">
-        <v>0.05510778792289159</v>
+        <v>0.05899766183753465</v>
       </c>
       <c r="P4">
-        <v>0.05510778792289159</v>
+        <v>0.06461607466749766</v>
       </c>
       <c r="Q4">
-        <v>0.3679463753530181</v>
+        <v>0.995292778500222</v>
       </c>
       <c r="R4">
-        <v>0.3679463753530181</v>
+        <v>8.957635006501999</v>
       </c>
       <c r="S4">
-        <v>0.05510778792289159</v>
+        <v>0.0258164516637984</v>
       </c>
       <c r="T4">
-        <v>0.05510778792289159</v>
+        <v>0.03057149685325483</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>21</v>
       </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.162200835793161</v>
+        <v>0.3969536666666666</v>
       </c>
       <c r="H5">
-        <v>0.162200835793161</v>
+        <v>1.190861</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.4375843187631858</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.4731252557598102</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.24558652577006</v>
+        <v>4.394691</v>
       </c>
       <c r="N5">
-        <v>4.24558652577006</v>
+        <v>13.184073</v>
       </c>
       <c r="O5">
-        <v>0.1031381253565036</v>
+        <v>0.1034075168612968</v>
       </c>
       <c r="P5">
-        <v>0.1031381253565036</v>
+        <v>0.113255129484455</v>
       </c>
       <c r="Q5">
-        <v>0.6886376829120864</v>
+        <v>1.744488706317</v>
       </c>
       <c r="R5">
-        <v>0.6886376829120864</v>
+        <v>15.700398356853</v>
       </c>
       <c r="S5">
-        <v>0.1031381253565036</v>
+        <v>0.0452495078207432</v>
       </c>
       <c r="T5">
-        <v>0.1031381253565036</v>
+        <v>0.05358386210344321</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,681 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G6">
+        <v>0.3969536666666666</v>
+      </c>
+      <c r="H6">
+        <v>1.190861</v>
+      </c>
+      <c r="I6">
+        <v>0.4375843187631858</v>
+      </c>
+      <c r="J6">
+        <v>0.4731252557598102</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>11.08589</v>
+      </c>
+      <c r="N6">
+        <v>22.17178</v>
+      </c>
+      <c r="O6">
+        <v>0.2608520956530235</v>
+      </c>
+      <c r="P6">
+        <v>0.1904622201955989</v>
+      </c>
+      <c r="Q6">
+        <v>4.400584683763332</v>
+      </c>
+      <c r="R6">
+        <v>26.40350810258</v>
+      </c>
+      <c r="S6">
+        <v>0.1141447865742777</v>
+      </c>
+      <c r="T6">
+        <v>0.09011248664262402</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
         <v>21</v>
       </c>
-      <c r="C6" t="s">
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G7">
+        <v>0.3057606666666667</v>
+      </c>
+      <c r="H7">
+        <v>0.917282</v>
+      </c>
+      <c r="I7">
+        <v>0.3370571536759812</v>
+      </c>
+      <c r="J7">
+        <v>0.3644331965308044</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>12.80982066666667</v>
+      </c>
+      <c r="N7">
+        <v>38.429462</v>
+      </c>
+      <c r="O7">
+        <v>0.3014163559118313</v>
+      </c>
+      <c r="P7">
+        <v>0.3301205700869484</v>
+      </c>
+      <c r="Q7">
+        <v>3.916739306920445</v>
+      </c>
+      <c r="R7">
+        <v>35.250653762284</v>
+      </c>
+      <c r="S7">
+        <v>0.1015945389950283</v>
+      </c>
+      <c r="T7">
+        <v>0.1203068945973581</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>0.3057606666666667</v>
+      </c>
+      <c r="H8">
+        <v>0.917282</v>
+      </c>
+      <c r="I8">
+        <v>0.3370571536759812</v>
+      </c>
+      <c r="J8">
+        <v>0.3644331965308044</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>11.70102866666667</v>
+      </c>
+      <c r="N8">
+        <v>35.103086</v>
+      </c>
+      <c r="O8">
+        <v>0.2753263697363138</v>
+      </c>
+      <c r="P8">
+        <v>0.3015460055655002</v>
+      </c>
+      <c r="Q8">
+        <v>3.577714325805778</v>
+      </c>
+      <c r="R8">
+        <v>32.199428932252</v>
+      </c>
+      <c r="S8">
+        <v>0.09280072251526272</v>
+      </c>
+      <c r="T8">
+        <v>0.109893374709331</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.3057606666666667</v>
+      </c>
+      <c r="H9">
+        <v>0.917282</v>
+      </c>
+      <c r="I9">
+        <v>0.3370571536759812</v>
+      </c>
+      <c r="J9">
+        <v>0.3644331965308044</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>2.507327333333333</v>
+      </c>
+      <c r="N9">
+        <v>7.521982</v>
+      </c>
+      <c r="O9">
+        <v>0.05899766183753465</v>
+      </c>
+      <c r="P9">
+        <v>0.06461607466749766</v>
+      </c>
+      <c r="Q9">
+        <v>0.7666420769915555</v>
+      </c>
+      <c r="R9">
+        <v>6.899778692923999</v>
+      </c>
+      <c r="S9">
+        <v>0.01988558397249749</v>
+      </c>
+      <c r="T9">
+        <v>0.02354824263834931</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.3057606666666667</v>
+      </c>
+      <c r="H10">
+        <v>0.917282</v>
+      </c>
+      <c r="I10">
+        <v>0.3370571536759812</v>
+      </c>
+      <c r="J10">
+        <v>0.3644331965308044</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>4.394691</v>
+      </c>
+      <c r="N10">
+        <v>13.184073</v>
+      </c>
+      <c r="O10">
+        <v>0.1034075168612968</v>
+      </c>
+      <c r="P10">
+        <v>0.113255129484455</v>
+      </c>
+      <c r="Q10">
+        <v>1.343723649954</v>
+      </c>
+      <c r="R10">
+        <v>12.093512849586</v>
+      </c>
+      <c r="S10">
+        <v>0.03485424330196973</v>
+      </c>
+      <c r="T10">
+        <v>0.0412739288615301</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>22</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.3057606666666667</v>
+      </c>
+      <c r="H11">
+        <v>0.917282</v>
+      </c>
+      <c r="I11">
+        <v>0.3370571536759812</v>
+      </c>
+      <c r="J11">
+        <v>0.3644331965308044</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>11.08589</v>
+      </c>
+      <c r="N11">
+        <v>22.17178</v>
+      </c>
+      <c r="O11">
+        <v>0.2608520956530235</v>
+      </c>
+      <c r="P11">
+        <v>0.1904622201955989</v>
+      </c>
+      <c r="Q11">
+        <v>3.389629116993333</v>
+      </c>
+      <c r="R11">
+        <v>20.33777470196</v>
+      </c>
+      <c r="S11">
+        <v>0.0879220648912229</v>
+      </c>
+      <c r="T11">
+        <v>0.06941075572423604</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.2044335</v>
+      </c>
+      <c r="H12">
+        <v>0.408867</v>
+      </c>
+      <c r="I12">
+        <v>0.225358527560833</v>
+      </c>
+      <c r="J12">
+        <v>0.1624415477093853</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>12.80982066666667</v>
+      </c>
+      <c r="N12">
+        <v>38.429462</v>
+      </c>
+      <c r="O12">
+        <v>0.3014163559118313</v>
+      </c>
+      <c r="P12">
+        <v>0.3301205700869484</v>
+      </c>
+      <c r="Q12">
+        <v>2.618756473259</v>
+      </c>
+      <c r="R12">
+        <v>15.712538839554</v>
+      </c>
+      <c r="S12">
+        <v>0.0679267461510423</v>
+      </c>
+      <c r="T12">
+        <v>0.05362529633562851</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.2044335</v>
+      </c>
+      <c r="H13">
+        <v>0.408867</v>
+      </c>
+      <c r="I13">
+        <v>0.225358527560833</v>
+      </c>
+      <c r="J13">
+        <v>0.1624415477093853</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>11.70102866666667</v>
+      </c>
+      <c r="N13">
+        <v>35.103086</v>
+      </c>
+      <c r="O13">
+        <v>0.2753263697363138</v>
+      </c>
+      <c r="P13">
+        <v>0.3015460055655002</v>
+      </c>
+      <c r="Q13">
+        <v>2.392082243927</v>
+      </c>
+      <c r="R13">
+        <v>14.352493463562</v>
+      </c>
+      <c r="S13">
+        <v>0.06204714528244518</v>
+      </c>
+      <c r="T13">
+        <v>0.04898359984964278</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
         <v>20</v>
       </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>0.162200835793161</v>
-      </c>
-      <c r="H6">
-        <v>0.162200835793161</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>11.0786650216608</v>
-      </c>
-      <c r="N6">
-        <v>11.0786650216608</v>
-      </c>
-      <c r="O6">
-        <v>0.2691342491434712</v>
-      </c>
-      <c r="P6">
-        <v>0.2691342491434712</v>
-      </c>
-      <c r="Q6">
-        <v>1.79696872598584</v>
-      </c>
-      <c r="R6">
-        <v>1.79696872598584</v>
-      </c>
-      <c r="S6">
-        <v>0.2691342491434712</v>
-      </c>
-      <c r="T6">
-        <v>0.2691342491434712</v>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.2044335</v>
+      </c>
+      <c r="H14">
+        <v>0.408867</v>
+      </c>
+      <c r="I14">
+        <v>0.225358527560833</v>
+      </c>
+      <c r="J14">
+        <v>0.1624415477093853</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>2.507327333333333</v>
+      </c>
+      <c r="N14">
+        <v>7.521982</v>
+      </c>
+      <c r="O14">
+        <v>0.05899766183753465</v>
+      </c>
+      <c r="P14">
+        <v>0.06461607466749766</v>
+      </c>
+      <c r="Q14">
+        <v>0.5125817023989999</v>
+      </c>
+      <c r="R14">
+        <v>3.075490214394</v>
+      </c>
+      <c r="S14">
+        <v>0.01329562620123876</v>
+      </c>
+      <c r="T14">
+        <v>0.01049633517589353</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.2044335</v>
+      </c>
+      <c r="H15">
+        <v>0.408867</v>
+      </c>
+      <c r="I15">
+        <v>0.225358527560833</v>
+      </c>
+      <c r="J15">
+        <v>0.1624415477093853</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>4.394691</v>
+      </c>
+      <c r="N15">
+        <v>13.184073</v>
+      </c>
+      <c r="O15">
+        <v>0.1034075168612968</v>
+      </c>
+      <c r="P15">
+        <v>0.113255129484455</v>
+      </c>
+      <c r="Q15">
+        <v>0.8984220625485</v>
+      </c>
+      <c r="R15">
+        <v>5.390532375290999</v>
+      </c>
+      <c r="S15">
+        <v>0.02330376573858386</v>
+      </c>
+      <c r="T15">
+        <v>0.01839733851948172</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.2044335</v>
+      </c>
+      <c r="H16">
+        <v>0.408867</v>
+      </c>
+      <c r="I16">
+        <v>0.225358527560833</v>
+      </c>
+      <c r="J16">
+        <v>0.1624415477093853</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>11.08589</v>
+      </c>
+      <c r="N16">
+        <v>22.17178</v>
+      </c>
+      <c r="O16">
+        <v>0.2608520956530235</v>
+      </c>
+      <c r="P16">
+        <v>0.1904622201955989</v>
+      </c>
+      <c r="Q16">
+        <v>2.266327293315</v>
+      </c>
+      <c r="R16">
+        <v>9.065309173259999</v>
+      </c>
+      <c r="S16">
+        <v>0.05878524418752296</v>
+      </c>
+      <c r="T16">
+        <v>0.03093897782873883</v>
       </c>
     </row>
   </sheetData>
